--- a/WW2DataBook.xlsx
+++ b/WW2DataBook.xlsx
@@ -1,32 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\Blog\Pacific WW2 Custom Visual\Final Files\Japan-in-the-Pacific\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A33668-1F9B-4004-9B66-7FBC2B0E98AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B398E211-6052-4CDC-8B50-62EA7FF7D62B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31710" yWindow="2115" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="War Ship losses" sheetId="1" r:id="rId1"/>
-    <sheet name="Resource Prodcution" sheetId="2" r:id="rId2"/>
+    <sheet name="Resource Production" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -73,9 +84,6 @@
     <t>Metric Tons</t>
   </si>
   <si>
-    <t>Crude Oil</t>
-  </si>
-  <si>
     <t>Oil Consumption</t>
   </si>
   <si>
@@ -97,16 +105,32 @@
     <t>Gross Tons</t>
   </si>
   <si>
-    <t>Plans</t>
+    <t>Tanker Tonnage</t>
   </si>
   <si>
-    <t>Tanker Tonnage</t>
+    <t>Planes</t>
+  </si>
+  <si>
+    <t>Shipping Tonnage Lost</t>
+  </si>
+  <si>
+    <t>Oil Imports</t>
+  </si>
+  <si>
+    <t>Crude Oil Production</t>
+  </si>
+  <si>
+    <t>Oil Stocks</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -136,9 +160,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,15 +445,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -813,6 +840,501 @@
       </c>
       <c r="C35">
         <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>15311</v>
+      </c>
+      <c r="B36" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>15342</v>
+      </c>
+      <c r="B37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>15373</v>
+      </c>
+      <c r="B38" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>15401</v>
+      </c>
+      <c r="B39" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>15432</v>
+      </c>
+      <c r="B40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>15462</v>
+      </c>
+      <c r="B41" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>15493</v>
+      </c>
+      <c r="B42" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>15523</v>
+      </c>
+      <c r="B43" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>15554</v>
+      </c>
+      <c r="B44" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>15585</v>
+      </c>
+      <c r="B45" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>15615</v>
+      </c>
+      <c r="B46" t="s">
+        <v>20</v>
+      </c>
+      <c r="C46">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>15646</v>
+      </c>
+      <c r="B47" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>15676</v>
+      </c>
+      <c r="B48" t="s">
+        <v>20</v>
+      </c>
+      <c r="C48">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>15707</v>
+      </c>
+      <c r="B49" t="s">
+        <v>20</v>
+      </c>
+      <c r="C49">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>15738</v>
+      </c>
+      <c r="B50" t="s">
+        <v>20</v>
+      </c>
+      <c r="C50">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>15766</v>
+      </c>
+      <c r="B51" t="s">
+        <v>20</v>
+      </c>
+      <c r="C51">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>15797</v>
+      </c>
+      <c r="B52" t="s">
+        <v>20</v>
+      </c>
+      <c r="C52">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>15827</v>
+      </c>
+      <c r="B53" t="s">
+        <v>20</v>
+      </c>
+      <c r="C53">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>15858</v>
+      </c>
+      <c r="B54" t="s">
+        <v>20</v>
+      </c>
+      <c r="C54">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>15888</v>
+      </c>
+      <c r="B55" t="s">
+        <v>20</v>
+      </c>
+      <c r="C55">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>15919</v>
+      </c>
+      <c r="B56" t="s">
+        <v>20</v>
+      </c>
+      <c r="C56">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>15950</v>
+      </c>
+      <c r="B57" t="s">
+        <v>20</v>
+      </c>
+      <c r="C57">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>15980</v>
+      </c>
+      <c r="B58" t="s">
+        <v>20</v>
+      </c>
+      <c r="C58">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>16011</v>
+      </c>
+      <c r="B59" t="s">
+        <v>20</v>
+      </c>
+      <c r="C59">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>16041</v>
+      </c>
+      <c r="B60" t="s">
+        <v>20</v>
+      </c>
+      <c r="C60">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>16072</v>
+      </c>
+      <c r="B61" t="s">
+        <v>20</v>
+      </c>
+      <c r="C61">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>16103</v>
+      </c>
+      <c r="B62" t="s">
+        <v>20</v>
+      </c>
+      <c r="C62">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>16132</v>
+      </c>
+      <c r="B63" t="s">
+        <v>20</v>
+      </c>
+      <c r="C63">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>16163</v>
+      </c>
+      <c r="B64" t="s">
+        <v>20</v>
+      </c>
+      <c r="C64">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>16193</v>
+      </c>
+      <c r="B65" t="s">
+        <v>20</v>
+      </c>
+      <c r="C65">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>16224</v>
+      </c>
+      <c r="B66" t="s">
+        <v>20</v>
+      </c>
+      <c r="C66">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>16254</v>
+      </c>
+      <c r="B67" t="s">
+        <v>20</v>
+      </c>
+      <c r="C67">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>16285</v>
+      </c>
+      <c r="B68" t="s">
+        <v>20</v>
+      </c>
+      <c r="C68">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>16316</v>
+      </c>
+      <c r="B69" t="s">
+        <v>20</v>
+      </c>
+      <c r="C69">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>16346</v>
+      </c>
+      <c r="B70" t="s">
+        <v>20</v>
+      </c>
+      <c r="C70">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>16377</v>
+      </c>
+      <c r="B71" t="s">
+        <v>20</v>
+      </c>
+      <c r="C71">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>16407</v>
+      </c>
+      <c r="B72" t="s">
+        <v>20</v>
+      </c>
+      <c r="C72">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>16438</v>
+      </c>
+      <c r="B73" t="s">
+        <v>20</v>
+      </c>
+      <c r="C73">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>16469</v>
+      </c>
+      <c r="B74" t="s">
+        <v>20</v>
+      </c>
+      <c r="C74">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>16497</v>
+      </c>
+      <c r="B75" t="s">
+        <v>20</v>
+      </c>
+      <c r="C75">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>16528</v>
+      </c>
+      <c r="B76" t="s">
+        <v>20</v>
+      </c>
+      <c r="C76">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>16558</v>
+      </c>
+      <c r="B77" t="s">
+        <v>20</v>
+      </c>
+      <c r="C77">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>16589</v>
+      </c>
+      <c r="B78" t="s">
+        <v>20</v>
+      </c>
+      <c r="C78">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>16619</v>
+      </c>
+      <c r="B79" t="s">
+        <v>20</v>
+      </c>
+      <c r="C79">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>16650</v>
+      </c>
+      <c r="B80" t="s">
+        <v>20</v>
+      </c>
+      <c r="C80">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -822,15 +1344,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7960B5FB-E369-405E-BFBD-618A00CEA9AA}">
-  <dimension ref="A1:D63"/>
+  <dimension ref="A1:E191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="E83" sqref="E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -840,7 +1366,7 @@
       <c r="B1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D1" t="s">
@@ -854,7 +1380,7 @@
       <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>61.3</v>
       </c>
       <c r="D2" t="s">
@@ -868,7 +1394,7 @@
       <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>60.5</v>
       </c>
       <c r="D3" t="s">
@@ -882,7 +1408,7 @@
       <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>51.7</v>
       </c>
       <c r="D4" t="s">
@@ -896,7 +1422,7 @@
       <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>11</v>
       </c>
       <c r="D5" t="s">
@@ -910,7 +1436,7 @@
       <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>7.4</v>
       </c>
       <c r="D6" t="s">
@@ -924,7 +1450,7 @@
       <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <v>6.7</v>
       </c>
       <c r="D7" t="s">
@@ -938,7 +1464,7 @@
       <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <v>6</v>
       </c>
       <c r="D8" t="s">
@@ -952,7 +1478,7 @@
       <c r="B9" t="s">
         <v>12</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>0.9</v>
       </c>
       <c r="D9" t="s">
@@ -964,10 +1490,10 @@
         <v>15676</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10">
-        <v>1.8</v>
+        <v>18</v>
+      </c>
+      <c r="C10" s="3">
+        <v>8</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
@@ -978,10 +1504,10 @@
         <v>16041</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11">
-        <v>2.2999999999999998</v>
+        <v>18</v>
+      </c>
+      <c r="C11" s="3">
+        <v>8.8000000000000007</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
@@ -992,10 +1518,10 @@
         <v>16407</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="C12" s="3">
+        <v>6.5</v>
       </c>
       <c r="D12" t="s">
         <v>14</v>
@@ -1006,10 +1532,10 @@
         <v>16558</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13">
-        <v>0.1</v>
+        <v>18</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.8</v>
       </c>
       <c r="D13" t="s">
         <v>14</v>
@@ -1017,636 +1543,2548 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>15311</v>
+        <v>15676</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14">
-        <v>22.6</v>
+        <v>17</v>
+      </c>
+      <c r="C14" s="3">
+        <v>103</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>15676</v>
+        <v>16041</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15">
-        <v>25.8</v>
+        <v>17</v>
+      </c>
+      <c r="C15" s="3">
+        <v>141</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>16041</v>
+        <v>16407</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16">
-        <v>27.8</v>
+        <v>17</v>
+      </c>
+      <c r="C16" s="3">
+        <v>110</v>
       </c>
       <c r="D16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16558</v>
+      </c>
+      <c r="B17" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>16407</v>
-      </c>
-      <c r="B17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17">
-        <v>19.399999999999999</v>
+      <c r="C17" s="3">
+        <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>16558</v>
+        <v>14580</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18">
-        <v>4.5999999999999996</v>
+        <v>19</v>
+      </c>
+      <c r="C18" s="3">
+        <v>4467</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>15676</v>
+        <v>14946</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
       </c>
-      <c r="C19">
-        <v>8</v>
+      <c r="C19" s="3">
+        <v>4768</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>16041</v>
+        <v>15311</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
       </c>
-      <c r="C20">
-        <v>8.8000000000000007</v>
+      <c r="C20" s="3">
+        <v>5088</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>16407</v>
+        <v>15676</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
       </c>
-      <c r="C21">
-        <v>6.5</v>
+      <c r="C21" s="3">
+        <v>8861</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>16558</v>
+        <v>16041</v>
       </c>
       <c r="B22" t="s">
         <v>19</v>
       </c>
-      <c r="C22">
-        <v>0.8</v>
+      <c r="C22" s="3">
+        <v>16693</v>
       </c>
       <c r="D22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
+        <v>16407</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="3">
+        <v>28180</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>16558</v>
+      </c>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="3">
+        <v>8263</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>14580</v>
+      </c>
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="3">
+        <v>320466</v>
+      </c>
+      <c r="D25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>14946</v>
+      </c>
+      <c r="B26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="3">
+        <v>293612</v>
+      </c>
+      <c r="D26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>15311</v>
+      </c>
+      <c r="B27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="3">
+        <v>210373</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>15676</v>
       </c>
-      <c r="B23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23">
-        <v>103</v>
-      </c>
-      <c r="D23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+      <c r="B28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="3">
+        <v>260059</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>16041</v>
       </c>
-      <c r="B24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24">
-        <v>141</v>
-      </c>
-      <c r="D24" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="3">
+        <v>796085</v>
+      </c>
+      <c r="D29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>16407</v>
       </c>
-      <c r="B25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25">
-        <v>110</v>
-      </c>
-      <c r="D25" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+      <c r="B30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="3">
+        <v>1699203</v>
+      </c>
+      <c r="D30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>16558</v>
       </c>
-      <c r="B26" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26">
-        <v>7</v>
-      </c>
-      <c r="D26" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>14580</v>
-      </c>
-      <c r="B27" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27">
-        <v>4467</v>
-      </c>
-      <c r="D27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>14946</v>
-      </c>
-      <c r="B28" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28">
-        <v>4768</v>
-      </c>
-      <c r="D28" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+      <c r="B31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="3">
+        <v>599563</v>
+      </c>
+      <c r="D31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>15311</v>
       </c>
-      <c r="B29" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29">
-        <v>5088</v>
-      </c>
-      <c r="D29" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+      <c r="B32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="3">
+        <v>578000</v>
+      </c>
+      <c r="D32" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>15676</v>
       </c>
-      <c r="B30" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30">
-        <v>8861</v>
-      </c>
-      <c r="D30" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+      <c r="B33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="3">
+        <v>686000</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
         <v>16041</v>
       </c>
-      <c r="B31" t="s">
-        <v>20</v>
-      </c>
-      <c r="C31">
-        <v>16693</v>
-      </c>
-      <c r="D31" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+      <c r="B34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="3">
+        <v>873000</v>
+      </c>
+      <c r="D34" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
         <v>16407</v>
       </c>
-      <c r="B32" t="s">
-        <v>20</v>
-      </c>
-      <c r="C32">
-        <v>28180</v>
-      </c>
-      <c r="D32" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+      <c r="B35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="3">
+        <v>860000</v>
+      </c>
+      <c r="D35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
         <v>16558</v>
       </c>
-      <c r="B33" t="s">
-        <v>20</v>
-      </c>
-      <c r="C33">
-        <v>8263</v>
-      </c>
-      <c r="D33" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>14580</v>
-      </c>
-      <c r="B34" t="s">
-        <v>21</v>
-      </c>
-      <c r="C34">
-        <v>320466</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>14946</v>
-      </c>
-      <c r="B35" t="s">
-        <v>21</v>
-      </c>
-      <c r="C35">
-        <v>293612</v>
-      </c>
-      <c r="D35" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+      <c r="B36" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="3">
+        <v>266948</v>
+      </c>
+      <c r="D36" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
         <v>15311</v>
       </c>
-      <c r="B36" t="s">
-        <v>21</v>
-      </c>
-      <c r="C36">
-        <v>210373</v>
-      </c>
-      <c r="D36" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
+      <c r="B37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="3">
+        <v>-57758</v>
+      </c>
+      <c r="D37" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>15342</v>
+      </c>
+      <c r="B38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" s="3">
+        <v>-73865</v>
+      </c>
+      <c r="D38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>15373</v>
+      </c>
+      <c r="B39" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" s="3">
+        <v>-37291</v>
+      </c>
+      <c r="D39" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>15401</v>
+      </c>
+      <c r="B40" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" s="3">
+        <v>-103095</v>
+      </c>
+      <c r="D40" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>15432</v>
+      </c>
+      <c r="B41" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" s="3">
+        <v>-42796</v>
+      </c>
+      <c r="D41" t="s">
+        <v>21</v>
+      </c>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>15462</v>
+      </c>
+      <c r="B42" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" s="3">
+        <v>-105128</v>
+      </c>
+      <c r="D42" t="s">
+        <v>21</v>
+      </c>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>15493</v>
+      </c>
+      <c r="B43" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" s="3">
+        <v>-38519</v>
+      </c>
+      <c r="D43" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>15523</v>
+      </c>
+      <c r="B44" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" s="3">
+        <v>-62331</v>
+      </c>
+      <c r="D44" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>15554</v>
+      </c>
+      <c r="B45" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45" s="3">
+        <v>-114281</v>
+      </c>
+      <c r="D45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>15585</v>
+      </c>
+      <c r="B46" t="s">
+        <v>24</v>
+      </c>
+      <c r="C46" s="3">
+        <v>-54478</v>
+      </c>
+      <c r="D46" t="s">
+        <v>21</v>
+      </c>
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>15615</v>
+      </c>
+      <c r="B47" t="s">
+        <v>24</v>
+      </c>
+      <c r="C47" s="3">
+        <v>-176997</v>
+      </c>
+      <c r="D47" t="s">
+        <v>21</v>
+      </c>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>15646</v>
+      </c>
+      <c r="B48" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48" s="3">
+        <v>-168253</v>
+      </c>
+      <c r="D48" t="s">
+        <v>21</v>
+      </c>
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
         <v>15676</v>
       </c>
-      <c r="B37" t="s">
-        <v>21</v>
-      </c>
-      <c r="C37">
-        <v>260059</v>
-      </c>
-      <c r="D37" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>16041</v>
-      </c>
-      <c r="B38" t="s">
-        <v>21</v>
-      </c>
-      <c r="C38">
-        <v>796085</v>
-      </c>
-      <c r="D38" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>16407</v>
-      </c>
-      <c r="B39" t="s">
-        <v>21</v>
-      </c>
-      <c r="C39">
-        <v>1699203</v>
-      </c>
-      <c r="D39" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>16558</v>
-      </c>
-      <c r="B40" t="s">
-        <v>21</v>
-      </c>
-      <c r="C40">
-        <v>599563</v>
-      </c>
-      <c r="D40" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>15311</v>
-      </c>
-      <c r="B41" t="s">
-        <v>24</v>
-      </c>
-      <c r="C41">
-        <v>578000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>15676</v>
-      </c>
-      <c r="B42" t="s">
-        <v>24</v>
-      </c>
-      <c r="C42">
-        <v>686000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>16041</v>
-      </c>
-      <c r="B43" t="s">
-        <v>24</v>
-      </c>
-      <c r="C43">
-        <v>873000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>16407</v>
-      </c>
-      <c r="B44" t="s">
-        <v>24</v>
-      </c>
-      <c r="C44">
-        <v>860000</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>16558</v>
-      </c>
-      <c r="B45" t="s">
-        <v>24</v>
-      </c>
-      <c r="C45">
-        <v>266948</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>15311</v>
-      </c>
-      <c r="B46" t="s">
-        <v>3</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>15676</v>
-      </c>
-      <c r="B47" t="s">
-        <v>3</v>
-      </c>
-      <c r="C47">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>16041</v>
-      </c>
-      <c r="B48" t="s">
-        <v>3</v>
-      </c>
-      <c r="C48">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <v>16407</v>
-      </c>
       <c r="B49" t="s">
-        <v>3</v>
-      </c>
-      <c r="C49">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="C49" s="3">
+        <v>-88364</v>
+      </c>
+      <c r="D49" t="s">
+        <v>21</v>
+      </c>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>14946</v>
+        <v>15707</v>
       </c>
       <c r="B50" t="s">
-        <v>6</v>
-      </c>
-      <c r="C50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="C50" s="3">
+        <v>-158885</v>
+      </c>
+      <c r="D50" t="s">
+        <v>21</v>
+      </c>
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>15311</v>
+        <v>15738</v>
       </c>
       <c r="B51" t="s">
-        <v>6</v>
-      </c>
-      <c r="C51">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="C51" s="3">
+        <v>-92662</v>
+      </c>
+      <c r="D51" t="s">
+        <v>21</v>
+      </c>
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>15676</v>
+        <v>15766</v>
       </c>
       <c r="B52" t="s">
-        <v>6</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="C52" s="3">
+        <v>-147540</v>
+      </c>
+      <c r="D52" t="s">
+        <v>21</v>
+      </c>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>14946</v>
+        <v>15797</v>
       </c>
       <c r="B53" t="s">
-        <v>5</v>
-      </c>
-      <c r="C53">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="C53" s="3">
+        <v>-132724</v>
+      </c>
+      <c r="D53" t="s">
+        <v>21</v>
+      </c>
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>15311</v>
+        <v>15827</v>
       </c>
       <c r="B54" t="s">
-        <v>5</v>
-      </c>
-      <c r="C54">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="C54" s="3">
+        <v>-134661</v>
+      </c>
+      <c r="D54" t="s">
+        <v>21</v>
+      </c>
+      <c r="E54" s="2"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>15676</v>
+        <v>15858</v>
       </c>
       <c r="B55" t="s">
-        <v>5</v>
-      </c>
-      <c r="C55">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="C55" s="3">
+        <v>-105108</v>
+      </c>
+      <c r="D55" t="s">
+        <v>21</v>
+      </c>
+      <c r="E55" s="2"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>16041</v>
+        <v>15888</v>
       </c>
       <c r="B56" t="s">
-        <v>5</v>
-      </c>
-      <c r="C56">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="C56" s="3">
+        <v>-84361</v>
+      </c>
+      <c r="D56" t="s">
+        <v>21</v>
+      </c>
+      <c r="E56" s="2"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>16407</v>
+        <v>15919</v>
       </c>
       <c r="B57" t="s">
-        <v>5</v>
-      </c>
-      <c r="C57">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="C57" s="3">
+        <v>-100064</v>
+      </c>
+      <c r="D57" t="s">
+        <v>21</v>
+      </c>
+      <c r="E57" s="2"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>14946</v>
+        <v>15950</v>
       </c>
       <c r="B58" t="s">
-        <v>4</v>
-      </c>
-      <c r="C58">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="C58" s="3">
+        <v>-178966</v>
+      </c>
+      <c r="D58" t="s">
+        <v>21</v>
+      </c>
+      <c r="E58" s="2"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>15311</v>
+        <v>15980</v>
       </c>
       <c r="B59" t="s">
-        <v>4</v>
-      </c>
-      <c r="C59">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="C59" s="3">
+        <v>-158093</v>
+      </c>
+      <c r="D59" t="s">
+        <v>21</v>
+      </c>
+      <c r="E59" s="2"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>15676</v>
+        <v>16011</v>
       </c>
       <c r="B60" t="s">
-        <v>4</v>
-      </c>
-      <c r="C60">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="C60" s="3">
+        <v>-320807</v>
+      </c>
+      <c r="D60" t="s">
+        <v>21</v>
+      </c>
+      <c r="E60" s="2"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>16041</v>
       </c>
       <c r="B61" t="s">
-        <v>4</v>
-      </c>
-      <c r="C61">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="C61" s="3">
+        <v>-207048</v>
+      </c>
+      <c r="D61" t="s">
+        <v>21</v>
+      </c>
+      <c r="E61" s="2"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
+        <v>16072</v>
+      </c>
+      <c r="B62" t="s">
+        <v>24</v>
+      </c>
+      <c r="C62" s="3">
+        <v>-355368</v>
+      </c>
+      <c r="D62" t="s">
+        <v>21</v>
+      </c>
+      <c r="E62" s="2"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>16103</v>
+      </c>
+      <c r="B63" t="s">
+        <v>24</v>
+      </c>
+      <c r="C63" s="3">
+        <v>-518697</v>
+      </c>
+      <c r="D63" t="s">
+        <v>21</v>
+      </c>
+      <c r="E63" s="2"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>16132</v>
+      </c>
+      <c r="B64" t="s">
+        <v>24</v>
+      </c>
+      <c r="C64" s="3">
+        <v>-263805</v>
+      </c>
+      <c r="D64" t="s">
+        <v>21</v>
+      </c>
+      <c r="E64" s="2"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>16163</v>
+      </c>
+      <c r="B65" t="s">
+        <v>24</v>
+      </c>
+      <c r="C65" s="3">
+        <v>-128328</v>
+      </c>
+      <c r="D65" t="s">
+        <v>21</v>
+      </c>
+      <c r="E65" s="2"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>16193</v>
+      </c>
+      <c r="B66" t="s">
+        <v>24</v>
+      </c>
+      <c r="C66" s="3">
+        <v>-258591</v>
+      </c>
+      <c r="D66" t="s">
+        <v>21</v>
+      </c>
+      <c r="E66" s="2"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>16224</v>
+      </c>
+      <c r="B67" t="s">
+        <v>24</v>
+      </c>
+      <c r="C67" s="3">
+        <v>-278484</v>
+      </c>
+      <c r="D67" t="s">
+        <v>21</v>
+      </c>
+      <c r="E67" s="2"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>16254</v>
+      </c>
+      <c r="B68" t="s">
+        <v>24</v>
+      </c>
+      <c r="C68" s="3">
+        <v>-251921</v>
+      </c>
+      <c r="D68" t="s">
+        <v>21</v>
+      </c>
+      <c r="E68" s="2"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>16285</v>
+      </c>
+      <c r="B69" t="s">
+        <v>24</v>
+      </c>
+      <c r="C69" s="3">
+        <v>-295022</v>
+      </c>
+      <c r="D69" t="s">
+        <v>21</v>
+      </c>
+      <c r="E69" s="2"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>16316</v>
+      </c>
+      <c r="B70" t="s">
+        <v>24</v>
+      </c>
+      <c r="C70" s="3">
+        <v>-419112</v>
+      </c>
+      <c r="D70" t="s">
+        <v>21</v>
+      </c>
+      <c r="E70" s="2"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>16346</v>
+      </c>
+      <c r="B71" t="s">
+        <v>24</v>
+      </c>
+      <c r="C71" s="3">
+        <v>-512378</v>
+      </c>
+      <c r="D71" t="s">
+        <v>21</v>
+      </c>
+      <c r="E71" s="2"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>16377</v>
+      </c>
+      <c r="B72" t="s">
+        <v>24</v>
+      </c>
+      <c r="C72" s="3">
+        <v>-421026</v>
+      </c>
+      <c r="D72" t="s">
+        <v>21</v>
+      </c>
+      <c r="E72" s="2"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
         <v>16407</v>
       </c>
-      <c r="B62" t="s">
-        <v>4</v>
-      </c>
-      <c r="C62">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
+      <c r="B73" t="s">
+        <v>24</v>
+      </c>
+      <c r="C73" s="3">
+        <v>-118287</v>
+      </c>
+      <c r="D73" t="s">
+        <v>21</v>
+      </c>
+      <c r="E73" s="2"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>16438</v>
+      </c>
+      <c r="B74" t="s">
+        <v>24</v>
+      </c>
+      <c r="C74" s="3">
+        <v>-434648</v>
+      </c>
+      <c r="D74" t="s">
+        <v>21</v>
+      </c>
+      <c r="E74" s="2"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>16469</v>
+      </c>
+      <c r="B75" t="s">
+        <v>24</v>
+      </c>
+      <c r="C75" s="3">
+        <v>-101541</v>
+      </c>
+      <c r="D75" t="s">
+        <v>21</v>
+      </c>
+      <c r="E75" s="2"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>16497</v>
+      </c>
+      <c r="B76" t="s">
+        <v>24</v>
+      </c>
+      <c r="C76" s="3">
+        <v>-194649</v>
+      </c>
+      <c r="D76" t="s">
+        <v>21</v>
+      </c>
+      <c r="E76" s="2"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>16528</v>
+      </c>
+      <c r="B77" t="s">
+        <v>24</v>
+      </c>
+      <c r="C77" s="3">
+        <v>-125673</v>
+      </c>
+      <c r="D77" t="s">
+        <v>21</v>
+      </c>
+      <c r="E77" s="2"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>16558</v>
+      </c>
+      <c r="B78" t="s">
+        <v>24</v>
+      </c>
+      <c r="C78" s="3">
+        <v>-270703</v>
+      </c>
+      <c r="D78" t="s">
+        <v>21</v>
+      </c>
+      <c r="E78" s="2"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>16589</v>
+      </c>
+      <c r="B79" t="s">
+        <v>24</v>
+      </c>
+      <c r="C79" s="3">
+        <v>-245930</v>
+      </c>
+      <c r="D79" t="s">
+        <v>21</v>
+      </c>
+      <c r="E79" s="2"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
         <v>16619</v>
       </c>
-      <c r="B63" t="s">
-        <v>4</v>
-      </c>
-      <c r="C63">
-        <v>17</v>
+      <c r="B80" t="s">
+        <v>24</v>
+      </c>
+      <c r="C80" s="3">
+        <v>-309902</v>
+      </c>
+      <c r="D80" t="s">
+        <v>21</v>
+      </c>
+      <c r="E80" s="2"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>16650</v>
+      </c>
+      <c r="B81" t="s">
+        <v>24</v>
+      </c>
+      <c r="C81" s="3">
+        <v>-99094</v>
+      </c>
+      <c r="D81" t="s">
+        <v>21</v>
+      </c>
+      <c r="E81" s="2"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>15311</v>
+      </c>
+      <c r="B82" t="s">
+        <v>15</v>
+      </c>
+      <c r="C82" s="3">
+        <v>-22.6</v>
+      </c>
+      <c r="D82" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>15676</v>
+      </c>
+      <c r="B83" t="s">
+        <v>15</v>
+      </c>
+      <c r="C83" s="3">
+        <v>-25.8</v>
+      </c>
+      <c r="D83" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>16041</v>
+      </c>
+      <c r="B84" t="s">
+        <v>15</v>
+      </c>
+      <c r="C84" s="3">
+        <v>-27.8</v>
+      </c>
+      <c r="D84" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>16407</v>
+      </c>
+      <c r="B85" t="s">
+        <v>15</v>
+      </c>
+      <c r="C85" s="3">
+        <v>-19.399999999999999</v>
+      </c>
+      <c r="D85" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>16650</v>
+      </c>
+      <c r="B86" t="s">
+        <v>15</v>
+      </c>
+      <c r="C86" s="3">
+        <v>-4.5999999999999996</v>
+      </c>
+      <c r="D86" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>15311</v>
+      </c>
+      <c r="B87" t="s">
+        <v>25</v>
+      </c>
+      <c r="C87" s="3">
+        <v>8.4</v>
+      </c>
+      <c r="D87" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>15676</v>
+      </c>
+      <c r="B88" t="s">
+        <v>25</v>
+      </c>
+      <c r="C88" s="3">
+        <v>10.5</v>
+      </c>
+      <c r="D88" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>16041</v>
+      </c>
+      <c r="B89" t="s">
+        <v>25</v>
+      </c>
+      <c r="C89" s="3">
+        <v>14.5</v>
+      </c>
+      <c r="D89" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>16407</v>
+      </c>
+      <c r="B90" t="s">
+        <v>25</v>
+      </c>
+      <c r="C90" s="3">
+        <v>5</v>
+      </c>
+      <c r="D90" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>16650</v>
+      </c>
+      <c r="B91" t="s">
+        <v>25</v>
+      </c>
+      <c r="C91" s="3">
+        <v>0</v>
+      </c>
+      <c r="D91" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>15311</v>
+      </c>
+      <c r="B92" t="s">
+        <v>26</v>
+      </c>
+      <c r="C92" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D92" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>15676</v>
+      </c>
+      <c r="B93" t="s">
+        <v>26</v>
+      </c>
+      <c r="C93" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="D93" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>16041</v>
+      </c>
+      <c r="B94" t="s">
+        <v>26</v>
+      </c>
+      <c r="C94" s="3">
+        <v>2.8</v>
+      </c>
+      <c r="D94" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>16407</v>
+      </c>
+      <c r="B95" t="s">
+        <v>26</v>
+      </c>
+      <c r="C95" s="3">
+        <v>2.8</v>
+      </c>
+      <c r="D95" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>16650</v>
+      </c>
+      <c r="B96" t="s">
+        <v>26</v>
+      </c>
+      <c r="C96" s="3">
+        <v>1</v>
+      </c>
+      <c r="D96" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>15311</v>
+      </c>
+      <c r="B97" t="s">
+        <v>27</v>
+      </c>
+      <c r="C97" s="3">
+        <v>48.9</v>
+      </c>
+      <c r="D97" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>15676</v>
+      </c>
+      <c r="B98" t="s">
+        <v>27</v>
+      </c>
+      <c r="C98" s="3">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="D98" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>16041</v>
+      </c>
+      <c r="B99" t="s">
+        <v>27</v>
+      </c>
+      <c r="C99" s="3">
+        <v>25.8</v>
+      </c>
+      <c r="D99" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>16407</v>
+      </c>
+      <c r="B100" t="s">
+        <v>27</v>
+      </c>
+      <c r="C100" s="3">
+        <v>15.3</v>
+      </c>
+      <c r="D100" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>16650</v>
+      </c>
+      <c r="B101" t="s">
+        <v>27</v>
+      </c>
+      <c r="C101" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="D101" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>15311</v>
+      </c>
+      <c r="B102" t="s">
+        <v>20</v>
+      </c>
+      <c r="C102" s="3">
+        <v>48166.666666666664</v>
+      </c>
+      <c r="D102" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>15342</v>
+      </c>
+      <c r="B103" t="s">
+        <v>20</v>
+      </c>
+      <c r="C103" s="3">
+        <v>57166.666666666664</v>
+      </c>
+      <c r="D103" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>15373</v>
+      </c>
+      <c r="B104" t="s">
+        <v>20</v>
+      </c>
+      <c r="C104" s="3">
+        <v>57166.666666666664</v>
+      </c>
+      <c r="D104" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>15401</v>
+      </c>
+      <c r="B105" t="s">
+        <v>20</v>
+      </c>
+      <c r="C105" s="3">
+        <v>57166.666666666664</v>
+      </c>
+      <c r="D105" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>15432</v>
+      </c>
+      <c r="B106" t="s">
+        <v>20</v>
+      </c>
+      <c r="C106" s="3">
+        <v>57166.666666666664</v>
+      </c>
+      <c r="D106" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>15462</v>
+      </c>
+      <c r="B107" t="s">
+        <v>20</v>
+      </c>
+      <c r="C107" s="3">
+        <v>57166.666666666664</v>
+      </c>
+      <c r="D107" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>15493</v>
+      </c>
+      <c r="B108" t="s">
+        <v>20</v>
+      </c>
+      <c r="C108" s="3">
+        <v>57166.666666666664</v>
+      </c>
+      <c r="D108" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>15523</v>
+      </c>
+      <c r="B109" t="s">
+        <v>20</v>
+      </c>
+      <c r="C109" s="3">
+        <v>57166.666666666664</v>
+      </c>
+      <c r="D109" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>15554</v>
+      </c>
+      <c r="B110" t="s">
+        <v>20</v>
+      </c>
+      <c r="C110" s="3">
+        <v>57166.666666666664</v>
+      </c>
+      <c r="D110" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>15585</v>
+      </c>
+      <c r="B111" t="s">
+        <v>20</v>
+      </c>
+      <c r="C111" s="3">
+        <v>57166.666666666664</v>
+      </c>
+      <c r="D111" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>15615</v>
+      </c>
+      <c r="B112" t="s">
+        <v>20</v>
+      </c>
+      <c r="C112" s="3">
+        <v>57166.666666666664</v>
+      </c>
+      <c r="D112" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>15646</v>
+      </c>
+      <c r="B113" t="s">
+        <v>20</v>
+      </c>
+      <c r="C113" s="3">
+        <v>57166.666666666664</v>
+      </c>
+      <c r="D113" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>15676</v>
+      </c>
+      <c r="B114" t="s">
+        <v>20</v>
+      </c>
+      <c r="C114" s="3">
+        <v>57166.666666666664</v>
+      </c>
+      <c r="D114" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>15707</v>
+      </c>
+      <c r="B115" t="s">
+        <v>20</v>
+      </c>
+      <c r="C115" s="3">
+        <v>72750</v>
+      </c>
+      <c r="D115" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>15738</v>
+      </c>
+      <c r="B116" t="s">
+        <v>20</v>
+      </c>
+      <c r="C116" s="3">
+        <v>72750</v>
+      </c>
+      <c r="D116" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>15766</v>
+      </c>
+      <c r="B117" t="s">
+        <v>20</v>
+      </c>
+      <c r="C117" s="3">
+        <v>72750</v>
+      </c>
+      <c r="D117" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>15797</v>
+      </c>
+      <c r="B118" t="s">
+        <v>20</v>
+      </c>
+      <c r="C118" s="3">
+        <v>72750</v>
+      </c>
+      <c r="D118" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>15827</v>
+      </c>
+      <c r="B119" t="s">
+        <v>20</v>
+      </c>
+      <c r="C119" s="3">
+        <v>72750</v>
+      </c>
+      <c r="D119" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>15858</v>
+      </c>
+      <c r="B120" t="s">
+        <v>20</v>
+      </c>
+      <c r="C120" s="3">
+        <v>72750</v>
+      </c>
+      <c r="D120" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>15888</v>
+      </c>
+      <c r="B121" t="s">
+        <v>20</v>
+      </c>
+      <c r="C121" s="3">
+        <v>72750</v>
+      </c>
+      <c r="D121" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>15919</v>
+      </c>
+      <c r="B122" t="s">
+        <v>20</v>
+      </c>
+      <c r="C122" s="3">
+        <v>72750</v>
+      </c>
+      <c r="D122" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>15950</v>
+      </c>
+      <c r="B123" t="s">
+        <v>20</v>
+      </c>
+      <c r="C123" s="3">
+        <v>72750</v>
+      </c>
+      <c r="D123" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>15980</v>
+      </c>
+      <c r="B124" t="s">
+        <v>20</v>
+      </c>
+      <c r="C124" s="3">
+        <v>72750</v>
+      </c>
+      <c r="D124" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>16011</v>
+      </c>
+      <c r="B125" t="s">
+        <v>20</v>
+      </c>
+      <c r="C125" s="3">
+        <v>72750</v>
+      </c>
+      <c r="D125" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>16041</v>
+      </c>
+      <c r="B126" t="s">
+        <v>20</v>
+      </c>
+      <c r="C126" s="3">
+        <v>72750</v>
+      </c>
+      <c r="D126" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>16072</v>
+      </c>
+      <c r="B127" t="s">
+        <v>20</v>
+      </c>
+      <c r="C127" s="3">
+        <v>71666.666666666672</v>
+      </c>
+      <c r="D127" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>16103</v>
+      </c>
+      <c r="B128" t="s">
+        <v>20</v>
+      </c>
+      <c r="C128" s="3">
+        <v>71666.666666666672</v>
+      </c>
+      <c r="D128" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>16132</v>
+      </c>
+      <c r="B129" t="s">
+        <v>20</v>
+      </c>
+      <c r="C129" s="3">
+        <v>71666.666666666672</v>
+      </c>
+      <c r="D129" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>16163</v>
+      </c>
+      <c r="B130" t="s">
+        <v>20</v>
+      </c>
+      <c r="C130" s="3">
+        <v>71666.666666666672</v>
+      </c>
+      <c r="D130" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>16193</v>
+      </c>
+      <c r="B131" t="s">
+        <v>20</v>
+      </c>
+      <c r="C131" s="3">
+        <v>71666.666666666672</v>
+      </c>
+      <c r="D131" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>16224</v>
+      </c>
+      <c r="B132" t="s">
+        <v>20</v>
+      </c>
+      <c r="C132" s="3">
+        <v>71666.666666666672</v>
+      </c>
+      <c r="D132" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>16254</v>
+      </c>
+      <c r="B133" t="s">
+        <v>20</v>
+      </c>
+      <c r="C133" s="3">
+        <v>71666.666666666672</v>
+      </c>
+      <c r="D133" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>16285</v>
+      </c>
+      <c r="B134" t="s">
+        <v>20</v>
+      </c>
+      <c r="C134" s="3">
+        <v>71666.666666666672</v>
+      </c>
+      <c r="D134" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>16316</v>
+      </c>
+      <c r="B135" t="s">
+        <v>20</v>
+      </c>
+      <c r="C135" s="3">
+        <v>71666.666666666672</v>
+      </c>
+      <c r="D135" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>16346</v>
+      </c>
+      <c r="B136" t="s">
+        <v>20</v>
+      </c>
+      <c r="C136" s="3">
+        <v>71666.666666666672</v>
+      </c>
+      <c r="D136" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>16377</v>
+      </c>
+      <c r="B137" t="s">
+        <v>20</v>
+      </c>
+      <c r="C137" s="3">
+        <v>71666.666666666672</v>
+      </c>
+      <c r="D137" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>16407</v>
+      </c>
+      <c r="B138" t="s">
+        <v>20</v>
+      </c>
+      <c r="C138" s="3">
+        <v>71666.666666666672</v>
+      </c>
+      <c r="D138" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>16438</v>
+      </c>
+      <c r="B139" t="s">
+        <v>20</v>
+      </c>
+      <c r="C139" s="3">
+        <v>33368.5</v>
+      </c>
+      <c r="D139" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>16469</v>
+      </c>
+      <c r="B140" t="s">
+        <v>20</v>
+      </c>
+      <c r="C140" s="3">
+        <v>33368.5</v>
+      </c>
+      <c r="D140" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>16497</v>
+      </c>
+      <c r="B141" t="s">
+        <v>20</v>
+      </c>
+      <c r="C141" s="3">
+        <v>33368.5</v>
+      </c>
+      <c r="D141" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>16528</v>
+      </c>
+      <c r="B142" t="s">
+        <v>20</v>
+      </c>
+      <c r="C142" s="3">
+        <v>33368.5</v>
+      </c>
+      <c r="D142" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>16558</v>
+      </c>
+      <c r="B143" t="s">
+        <v>20</v>
+      </c>
+      <c r="C143" s="3">
+        <v>33368.5</v>
+      </c>
+      <c r="D143" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>16589</v>
+      </c>
+      <c r="B144" t="s">
+        <v>20</v>
+      </c>
+      <c r="C144" s="3">
+        <v>33368.5</v>
+      </c>
+      <c r="D144" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>16619</v>
+      </c>
+      <c r="B145" t="s">
+        <v>20</v>
+      </c>
+      <c r="C145" s="3">
+        <v>33368.5</v>
+      </c>
+      <c r="D145" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>16650</v>
+      </c>
+      <c r="B146" t="s">
+        <v>20</v>
+      </c>
+      <c r="C146" s="3">
+        <v>33368.5</v>
+      </c>
+      <c r="D146" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>15311</v>
+      </c>
+      <c r="B147" t="s">
+        <v>22</v>
+      </c>
+      <c r="C147" s="3">
+        <v>48166.666666666664</v>
+      </c>
+      <c r="D147" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>15342</v>
+      </c>
+      <c r="B148" t="s">
+        <v>22</v>
+      </c>
+      <c r="C148" s="3">
+        <v>57166.666666666664</v>
+      </c>
+      <c r="D148" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>15373</v>
+      </c>
+      <c r="B149" t="s">
+        <v>22</v>
+      </c>
+      <c r="C149" s="3">
+        <v>57166.666666666664</v>
+      </c>
+      <c r="D149" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <v>15401</v>
+      </c>
+      <c r="B150" t="s">
+        <v>22</v>
+      </c>
+      <c r="C150" s="3">
+        <v>57166.666666666664</v>
+      </c>
+      <c r="D150" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <v>15432</v>
+      </c>
+      <c r="B151" t="s">
+        <v>22</v>
+      </c>
+      <c r="C151" s="3">
+        <v>57166.666666666664</v>
+      </c>
+      <c r="D151" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <v>15462</v>
+      </c>
+      <c r="B152" t="s">
+        <v>22</v>
+      </c>
+      <c r="C152" s="3">
+        <v>57166.666666666664</v>
+      </c>
+      <c r="D152" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <v>15493</v>
+      </c>
+      <c r="B153" t="s">
+        <v>22</v>
+      </c>
+      <c r="C153" s="3">
+        <v>57166.666666666664</v>
+      </c>
+      <c r="D153" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>15523</v>
+      </c>
+      <c r="B154" t="s">
+        <v>22</v>
+      </c>
+      <c r="C154" s="3">
+        <v>57166.666666666664</v>
+      </c>
+      <c r="D154" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <v>15554</v>
+      </c>
+      <c r="B155" t="s">
+        <v>22</v>
+      </c>
+      <c r="C155" s="3">
+        <v>57166.666666666664</v>
+      </c>
+      <c r="D155" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <v>15585</v>
+      </c>
+      <c r="B156" t="s">
+        <v>22</v>
+      </c>
+      <c r="C156" s="3">
+        <v>57166.666666666664</v>
+      </c>
+      <c r="D156" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <v>15615</v>
+      </c>
+      <c r="B157" t="s">
+        <v>22</v>
+      </c>
+      <c r="C157" s="3">
+        <v>57166.666666666664</v>
+      </c>
+      <c r="D157" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>15646</v>
+      </c>
+      <c r="B158" t="s">
+        <v>22</v>
+      </c>
+      <c r="C158" s="3">
+        <v>57166.666666666664</v>
+      </c>
+      <c r="D158" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>15676</v>
+      </c>
+      <c r="B159" t="s">
+        <v>22</v>
+      </c>
+      <c r="C159" s="3">
+        <v>57166.666666666664</v>
+      </c>
+      <c r="D159" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>15707</v>
+      </c>
+      <c r="B160" t="s">
+        <v>22</v>
+      </c>
+      <c r="C160" s="3">
+        <v>72750</v>
+      </c>
+      <c r="D160" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>15738</v>
+      </c>
+      <c r="B161" t="s">
+        <v>22</v>
+      </c>
+      <c r="C161" s="3">
+        <v>72750</v>
+      </c>
+      <c r="D161" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>15766</v>
+      </c>
+      <c r="B162" t="s">
+        <v>22</v>
+      </c>
+      <c r="C162" s="3">
+        <v>72750</v>
+      </c>
+      <c r="D162" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>15797</v>
+      </c>
+      <c r="B163" t="s">
+        <v>22</v>
+      </c>
+      <c r="C163" s="3">
+        <v>72750</v>
+      </c>
+      <c r="D163" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>15827</v>
+      </c>
+      <c r="B164" t="s">
+        <v>22</v>
+      </c>
+      <c r="C164" s="3">
+        <v>72750</v>
+      </c>
+      <c r="D164" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>15858</v>
+      </c>
+      <c r="B165" t="s">
+        <v>22</v>
+      </c>
+      <c r="C165" s="3">
+        <v>72750</v>
+      </c>
+      <c r="D165" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <v>15888</v>
+      </c>
+      <c r="B166" t="s">
+        <v>22</v>
+      </c>
+      <c r="C166" s="3">
+        <v>72750</v>
+      </c>
+      <c r="D166" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <v>15919</v>
+      </c>
+      <c r="B167" t="s">
+        <v>22</v>
+      </c>
+      <c r="C167" s="3">
+        <v>72750</v>
+      </c>
+      <c r="D167" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <v>15950</v>
+      </c>
+      <c r="B168" t="s">
+        <v>22</v>
+      </c>
+      <c r="C168" s="3">
+        <v>72750</v>
+      </c>
+      <c r="D168" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <v>15980</v>
+      </c>
+      <c r="B169" t="s">
+        <v>22</v>
+      </c>
+      <c r="C169" s="3">
+        <v>72750</v>
+      </c>
+      <c r="D169" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <v>16011</v>
+      </c>
+      <c r="B170" t="s">
+        <v>22</v>
+      </c>
+      <c r="C170" s="3">
+        <v>72750</v>
+      </c>
+      <c r="D170" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
+        <v>16041</v>
+      </c>
+      <c r="B171" t="s">
+        <v>22</v>
+      </c>
+      <c r="C171" s="3">
+        <v>72750</v>
+      </c>
+      <c r="D171" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>16072</v>
+      </c>
+      <c r="B172" t="s">
+        <v>22</v>
+      </c>
+      <c r="C172" s="3">
+        <v>71666.666666666672</v>
+      </c>
+      <c r="D172" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>16103</v>
+      </c>
+      <c r="B173" t="s">
+        <v>22</v>
+      </c>
+      <c r="C173" s="3">
+        <v>71666.666666666672</v>
+      </c>
+      <c r="D173" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>16132</v>
+      </c>
+      <c r="B174" t="s">
+        <v>22</v>
+      </c>
+      <c r="C174" s="3">
+        <v>71666.666666666672</v>
+      </c>
+      <c r="D174" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <v>16163</v>
+      </c>
+      <c r="B175" t="s">
+        <v>22</v>
+      </c>
+      <c r="C175" s="3">
+        <v>71666.666666666672</v>
+      </c>
+      <c r="D175" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>16193</v>
+      </c>
+      <c r="B176" t="s">
+        <v>22</v>
+      </c>
+      <c r="C176" s="3">
+        <v>71666.666666666672</v>
+      </c>
+      <c r="D176" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <v>16224</v>
+      </c>
+      <c r="B177" t="s">
+        <v>22</v>
+      </c>
+      <c r="C177" s="3">
+        <v>71666.666666666672</v>
+      </c>
+      <c r="D177" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <v>16254</v>
+      </c>
+      <c r="B178" t="s">
+        <v>22</v>
+      </c>
+      <c r="C178" s="3">
+        <v>71666.666666666672</v>
+      </c>
+      <c r="D178" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <v>16285</v>
+      </c>
+      <c r="B179" t="s">
+        <v>22</v>
+      </c>
+      <c r="C179" s="3">
+        <v>71666.666666666672</v>
+      </c>
+      <c r="D179" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <v>16316</v>
+      </c>
+      <c r="B180" t="s">
+        <v>22</v>
+      </c>
+      <c r="C180" s="3">
+        <v>71666.666666666672</v>
+      </c>
+      <c r="D180" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
+        <v>16346</v>
+      </c>
+      <c r="B181" t="s">
+        <v>22</v>
+      </c>
+      <c r="C181" s="3">
+        <v>71666.666666666672</v>
+      </c>
+      <c r="D181" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <v>16377</v>
+      </c>
+      <c r="B182" t="s">
+        <v>22</v>
+      </c>
+      <c r="C182" s="3">
+        <v>71666.666666666672</v>
+      </c>
+      <c r="D182" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <v>16407</v>
+      </c>
+      <c r="B183" t="s">
+        <v>22</v>
+      </c>
+      <c r="C183" s="3">
+        <v>71666.666666666672</v>
+      </c>
+      <c r="D183" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>16438</v>
+      </c>
+      <c r="B184" t="s">
+        <v>22</v>
+      </c>
+      <c r="C184" s="3">
+        <v>33368.5</v>
+      </c>
+      <c r="D184" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <v>16469</v>
+      </c>
+      <c r="B185" t="s">
+        <v>22</v>
+      </c>
+      <c r="C185" s="3">
+        <v>33368.5</v>
+      </c>
+      <c r="D185" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <v>16497</v>
+      </c>
+      <c r="B186" t="s">
+        <v>22</v>
+      </c>
+      <c r="C186" s="3">
+        <v>33368.5</v>
+      </c>
+      <c r="D186" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
+        <v>16528</v>
+      </c>
+      <c r="B187" t="s">
+        <v>22</v>
+      </c>
+      <c r="C187" s="3">
+        <v>33368.5</v>
+      </c>
+      <c r="D187" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>16558</v>
+      </c>
+      <c r="B188" t="s">
+        <v>22</v>
+      </c>
+      <c r="C188" s="3">
+        <v>33368.5</v>
+      </c>
+      <c r="D188" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <v>16589</v>
+      </c>
+      <c r="B189" t="s">
+        <v>22</v>
+      </c>
+      <c r="C189" s="3">
+        <v>33368.5</v>
+      </c>
+      <c r="D189" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>16619</v>
+      </c>
+      <c r="B190" t="s">
+        <v>22</v>
+      </c>
+      <c r="C190" s="3">
+        <v>33368.5</v>
+      </c>
+      <c r="D190" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>16650</v>
+      </c>
+      <c r="B191" t="s">
+        <v>22</v>
+      </c>
+      <c r="C191" s="3">
+        <v>33368.5</v>
+      </c>
+      <c r="D191" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>